--- a/IKdata/Hoshiramu_IK_20240523/rawdata.xlsx
+++ b/IKdata/Hoshiramu_IK_20240523/rawdata.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEST\IKdata\Hoshiramu_IK_20240523\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2F808C26-F014-4CEF-B3B4-314C6F08A602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9827C01-7D47-438C-8F7F-38FB95F52E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rawdata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>UNKNOWN</t>
   </si>
@@ -72,11 +85,15 @@
   <si>
     <t>vastus_medius_l</t>
   </si>
+  <si>
+    <t>strain</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -6231,11 +6248,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7258,7 +7275,7 @@
         <v>0.23113976</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>25</v>
       </c>
@@ -7296,7 +7313,7 @@
         <v>0.23151202000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>26</v>
       </c>
@@ -7333,8 +7350,15 @@
       <c r="L34">
         <v>0.23262805</v>
       </c>
+      <c r="P34" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q34">
+        <f>(C23-C54)/C23</f>
+        <v>0.1507894126113225</v>
+      </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>27</v>
       </c>
@@ -7372,7 +7396,7 @@
         <v>0.23374503999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>28</v>
       </c>
@@ -7410,7 +7434,7 @@
         <v>0.23469124</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>29</v>
       </c>
@@ -7448,7 +7472,7 @@
         <v>0.23536039</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>30</v>
       </c>
@@ -7486,7 +7510,7 @@
         <v>0.23606363999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>31</v>
       </c>
@@ -7524,7 +7548,7 @@
         <v>0.23659768</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>32</v>
       </c>
@@ -7562,7 +7586,7 @@
         <v>0.23710456999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>33</v>
       </c>
@@ -7600,7 +7624,7 @@
         <v>0.23711848999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>34</v>
       </c>
@@ -7638,7 +7662,7 @@
         <v>0.23708944000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>35</v>
       </c>
@@ -7676,7 +7700,7 @@
         <v>0.23660065999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>36</v>
       </c>
@@ -7714,7 +7738,7 @@
         <v>0.23583989999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>37</v>
       </c>
@@ -7752,7 +7776,7 @@
         <v>0.23495729000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>38</v>
       </c>
@@ -7790,7 +7814,7 @@
         <v>0.2344253</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>39</v>
       </c>
@@ -7828,7 +7852,7 @@
         <v>0.23511136999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>40</v>
       </c>
